--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_A2_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_A2_attendance.xlsx
@@ -39,7 +39,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -59,6 +59,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00DFBFC7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF1A6"/>
       </patternFill>
     </fill>
     <fill>
@@ -87,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -111,7 +116,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -52986,7 +52994,7 @@
       </c>
       <c r="F350" s="8" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G350" s="5" t="inlineStr">
@@ -53003,10 +53011,10 @@
         <v>21</v>
       </c>
       <c r="J350" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K350" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L350" s="6" t="n">
         <v>27</v>
@@ -53018,7 +53026,7 @@
         <v>0</v>
       </c>
       <c r="O350" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P350" s="7" t="n">
         <v>27</v>
@@ -53026,10 +53034,8 @@
       <c r="Q350" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R350" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R350" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S350" s="7" t="inlineStr">
         <is>
@@ -53190,7 +53196,7 @@
       </c>
       <c r="F351" s="8" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G351" s="5" t="inlineStr">
@@ -53207,10 +53213,10 @@
         <v>21</v>
       </c>
       <c r="J351" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K351" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L351" s="6" t="n">
         <v>27</v>
@@ -53222,7 +53228,7 @@
         <v>0</v>
       </c>
       <c r="O351" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P351" s="7" t="n">
         <v>27</v>
@@ -53230,10 +53236,8 @@
       <c r="Q351" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R351" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R351" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S351" s="7" t="inlineStr">
         <is>
@@ -53394,7 +53398,7 @@
       </c>
       <c r="F352" s="8" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G352" s="5" t="inlineStr">
@@ -53411,10 +53415,10 @@
         <v>21</v>
       </c>
       <c r="J352" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K352" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L352" s="6" t="n">
         <v>27</v>
@@ -53426,7 +53430,7 @@
         <v>0</v>
       </c>
       <c r="O352" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P352" s="7" t="n">
         <v>27</v>
@@ -53434,10 +53438,8 @@
       <c r="Q352" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R352" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R352" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S352" s="7" t="inlineStr">
         <is>
@@ -53598,7 +53600,7 @@
       </c>
       <c r="F353" s="8" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G353" s="5" t="inlineStr">
@@ -53615,10 +53617,10 @@
         <v>21</v>
       </c>
       <c r="J353" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K353" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L353" s="6" t="n">
         <v>27</v>
@@ -53630,7 +53632,7 @@
         <v>0</v>
       </c>
       <c r="O353" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P353" s="7" t="n">
         <v>27</v>
@@ -53638,10 +53640,8 @@
       <c r="Q353" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R353" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R353" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S353" s="7" t="inlineStr">
         <is>
@@ -53802,7 +53802,7 @@
       </c>
       <c r="F354" s="8" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G354" s="5" t="inlineStr">
@@ -53819,10 +53819,10 @@
         <v>21</v>
       </c>
       <c r="J354" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K354" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L354" s="6" t="n">
         <v>27</v>
@@ -53834,7 +53834,7 @@
         <v>0</v>
       </c>
       <c r="O354" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P354" s="7" t="n">
         <v>27</v>
@@ -53842,10 +53842,8 @@
       <c r="Q354" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R354" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R354" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S354" s="7" t="inlineStr">
         <is>
@@ -54006,7 +54004,7 @@
       </c>
       <c r="F355" s="8" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G355" s="5" t="inlineStr">
@@ -54023,10 +54021,10 @@
         <v>21</v>
       </c>
       <c r="J355" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K355" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L355" s="6" t="n">
         <v>27</v>
@@ -54038,7 +54036,7 @@
         <v>0</v>
       </c>
       <c r="O355" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P355" s="7" t="n">
         <v>27</v>
@@ -54046,10 +54044,8 @@
       <c r="Q355" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R355" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R355" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S355" s="7" t="inlineStr">
         <is>
@@ -54208,7 +54204,7 @@
           <t>220969@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F356" s="8" t="inlineStr">
+      <c r="F356" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -54412,7 +54408,7 @@
           <t>221047@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F357" s="8" t="inlineStr">
+      <c r="F357" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -54616,7 +54612,7 @@
           <t>221085@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F358" s="8" t="inlineStr">
+      <c r="F358" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -54820,7 +54816,7 @@
           <t>221122@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F359" s="8" t="inlineStr">
+      <c r="F359" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -55024,7 +55020,7 @@
           <t>221157@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F360" s="8" t="inlineStr">
+      <c r="F360" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -55239,57 +55235,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>Session</t>
         </is>
       </c>
-      <c r="H1" s="9" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="J1" s="10" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="K1" s="10" t="inlineStr">
         <is>
           <t>Validation Group</t>
         </is>
